--- a/biology/Médecine/Paraphasie/Paraphasie.xlsx
+++ b/biology/Médecine/Paraphasie/Paraphasie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La paraphasie est un trouble du langage.
 La paraphasie phonémique est une transformation de la forme phonologique du mot. Les phonèmes ne sont pas déformés mais les erreurs consistent en la substitution, l'omission, l'ajout ou la transposition d'un ou de plusieurs phonèmes. Quand le mot cible n'est plus reconnaissable, ces productions sont appelées néologismes.
